--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,324 +436,474 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Rang</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Speler</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>180'ers</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>100+ finishes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Totaal</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Extra punten</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Totaal inclusief bonus</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nathan May</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Louis Tweddle</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C3" t="n">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yannick den Daggelder</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Remco Riem</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yannick den Daggelder</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rocky Van Den Eeckhoudt</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Milan Schoenmakers</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Afendi Kelana</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Francesco Petruccelli</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>martin Berry</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alessandro Delia</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Magnus Gladh</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diego Meerveld</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dartin Dan</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Robin Willis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lee Dolan</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nathan May</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rocky Van Den Eeckhoudt</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Milan Schoenmakers</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Afendi Kelana</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Francesco Petruccelli</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>martin Berry</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Alessandro Delia</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Magnus Gladh</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Dartin Dan</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Diego Meerveld</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lee Dolan</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Robin Willis</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Max Walter</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
@@ -763,16 +913,25 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Tristan Snoep</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
@@ -780,6 +939,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,6 @@
           <t>Totaal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Extra punten</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Totaal inclusief bonus</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -485,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -494,12 +484,6 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -509,25 +493,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
         <v>18</v>
       </c>
     </row>
@@ -537,25 +515,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
         <v>18</v>
       </c>
     </row>
@@ -580,12 +552,6 @@
       <c r="F5" t="n">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -608,12 +574,6 @@
       <c r="F6" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -625,7 +585,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -634,12 +594,6 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
         <v>12</v>
       </c>
     </row>
@@ -664,12 +618,6 @@
       <c r="F8" t="n">
         <v>11</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -692,12 +640,6 @@
       <c r="F9" t="n">
         <v>9</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -720,12 +662,6 @@
       <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -737,7 +673,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -746,12 +682,6 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -761,7 +691,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Magnus Gladh</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -774,12 +704,6 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -789,11 +713,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Magnus Gladh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -802,12 +726,6 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -832,12 +750,6 @@
       <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -849,7 +761,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -858,12 +770,6 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -888,12 +794,6 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -916,12 +816,6 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -942,12 +836,6 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -506,12 +506,12 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -537,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Remco Riem</t>
+          <t>Alessandro Delia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -555,24 +555,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Remco Riem</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -603,20 +603,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Afendi Kelana</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +625,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Francesco Petruccelli</t>
+          <t>Afendi Kelana</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -635,26 +635,26 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>martin Berry</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -665,68 +665,68 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alessandro Delia</t>
+          <t>Francesco Petruccelli</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>martin Berry</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Magnus Gladh</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -757,11 +757,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Magnus Gladh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -779,11 +779,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lee Dolan</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -792,20 +792,20 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -814,12 +814,12 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -836,7 +836,51 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gijs Tromp</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lee Dolan</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Totaal</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Winnaar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -485,6 +490,9 @@
       </c>
       <c r="F2" t="n">
         <v>38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>34</v>
       </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>18</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>17</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>17</v>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>14</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>12</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>11</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>9</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>9</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>9</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>9</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>7</v>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>4</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>3</v>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>3</v>
       </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>3</v>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>3</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -881,6 +940,9 @@
       </c>
       <c r="F20" t="n">
         <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Totaal Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Aantal Darts</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3-Darts Gemiddelde</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Totaal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Winnaar</t>
         </is>
@@ -489,9 +504,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
+        <v>19302</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1007</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>38</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -514,9 +538,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>21551</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1230</v>
+      </c>
+      <c r="H3" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="I3" t="n">
         <v>34</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -539,9 +572,18 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>11864</v>
+      </c>
+      <c r="G4" t="n">
+        <v>581</v>
+      </c>
+      <c r="H4" t="n">
+        <v>61.26</v>
+      </c>
+      <c r="I4" t="n">
         <v>18</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,9 +606,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>11161</v>
+      </c>
+      <c r="G5" t="n">
+        <v>650</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="I5" t="n">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,9 +640,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>7406</v>
+      </c>
+      <c r="G6" t="n">
+        <v>325</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="I6" t="n">
         <v>17</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -614,9 +674,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>7628</v>
+      </c>
+      <c r="G7" t="n">
+        <v>396</v>
+      </c>
+      <c r="H7" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="I7" t="n">
         <v>14</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -639,9 +708,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6984</v>
+      </c>
+      <c r="G8" t="n">
+        <v>333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="I8" t="n">
         <v>12</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,9 +742,18 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>7059</v>
+      </c>
+      <c r="G9" t="n">
+        <v>357</v>
+      </c>
+      <c r="H9" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="I9" t="n">
         <v>11</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -689,9 +776,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>7022</v>
+      </c>
+      <c r="G10" t="n">
+        <v>457</v>
+      </c>
+      <c r="H10" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -714,9 +810,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>6404</v>
+      </c>
+      <c r="G11" t="n">
+        <v>349</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -739,9 +844,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>4295</v>
+      </c>
+      <c r="G12" t="n">
+        <v>285</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="I12" t="n">
         <v>9</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,9 +878,18 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
+        <v>3652</v>
+      </c>
+      <c r="G13" t="n">
+        <v>168</v>
+      </c>
+      <c r="H13" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="I13" t="n">
         <v>9</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,9 +912,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>5323</v>
+      </c>
+      <c r="G14" t="n">
+        <v>298</v>
+      </c>
+      <c r="H14" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="I14" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,9 +946,18 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>4578</v>
+      </c>
+      <c r="G15" t="n">
+        <v>263</v>
+      </c>
+      <c r="H15" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -839,9 +980,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>2409</v>
+      </c>
+      <c r="G16" t="n">
+        <v>189</v>
+      </c>
+      <c r="H16" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -864,9 +1014,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>3693</v>
+      </c>
+      <c r="G17" t="n">
+        <v>218</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50.82</v>
+      </c>
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -889,9 +1048,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>3051</v>
+      </c>
+      <c r="G18" t="n">
+        <v>222</v>
+      </c>
+      <c r="H18" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,9 +1082,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>2042</v>
+      </c>
+      <c r="G19" t="n">
+        <v>114</v>
+      </c>
+      <c r="H19" t="n">
+        <v>53.74</v>
+      </c>
+      <c r="I19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,9 +1116,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>1770</v>
       </c>
       <c r="G20" t="n">
+        <v>131</v>
+      </c>
+      <c r="H20" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -504,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>19302</v>
+        <v>23145</v>
       </c>
       <c r="G2" t="n">
-        <v>1007</v>
+        <v>1199</v>
       </c>
       <c r="H2" t="n">
-        <v>57.5</v>
+        <v>57.91</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>21551</v>
+        <v>23399</v>
       </c>
       <c r="G3" t="n">
-        <v>1230</v>
+        <v>1337</v>
       </c>
       <c r="H3" t="n">
-        <v>52.56</v>
+        <v>52.5</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -559,32 +559,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>11864</v>
+        <v>11558</v>
       </c>
       <c r="G4" t="n">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="H4" t="n">
-        <v>61.26</v>
+        <v>63.74</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11161</v>
+        <v>15518</v>
       </c>
       <c r="G5" t="n">
-        <v>650</v>
+        <v>916</v>
       </c>
       <c r="H5" t="n">
-        <v>51.51</v>
+        <v>50.82</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7406</v>
+        <v>9836</v>
       </c>
       <c r="G6" t="n">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="H6" t="n">
-        <v>68.36</v>
+        <v>62.92</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -661,29 +661,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>7628</v>
+        <v>11864</v>
       </c>
       <c r="G7" t="n">
-        <v>396</v>
+        <v>581</v>
       </c>
       <c r="H7" t="n">
-        <v>57.79</v>
+        <v>61.26</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -695,11 +695,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6984</v>
+        <v>11451</v>
       </c>
       <c r="G8" t="n">
-        <v>333</v>
+        <v>624</v>
       </c>
       <c r="H8" t="n">
-        <v>62.92</v>
+        <v>55.05</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,29 +729,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Afendi Kelana</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7059</v>
+        <v>7628</v>
       </c>
       <c r="G9" t="n">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="H9" t="n">
-        <v>59.32</v>
+        <v>57.79</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -763,29 +763,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7022</v>
+        <v>6984</v>
       </c>
       <c r="G10" t="n">
-        <v>457</v>
+        <v>333</v>
       </c>
       <c r="H10" t="n">
-        <v>46.1</v>
+        <v>62.92</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -793,33 +793,33 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Francesco Petruccelli</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6404</v>
+        <v>6262</v>
       </c>
       <c r="G11" t="n">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="H11" t="n">
-        <v>55.05</v>
+        <v>39.38</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -827,11 +827,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>martin Berry</t>
+          <t>Afendi Kelana</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -841,19 +841,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>4295</v>
+        <v>8344</v>
       </c>
       <c r="G12" t="n">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="H12" t="n">
-        <v>45.21</v>
+        <v>57.94</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -861,30 +861,30 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diego Meerveld</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>9</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Nick Fitzpatrick</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3652</v>
+        <v>7022</v>
       </c>
       <c r="G13" t="n">
-        <v>168</v>
+        <v>457</v>
       </c>
       <c r="H13" t="n">
-        <v>65.20999999999999</v>
+        <v>46.1</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
@@ -895,15 +895,15 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Francesco Petruccelli</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5323</v>
+        <v>6404</v>
       </c>
       <c r="G14" t="n">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="H14" t="n">
-        <v>53.59</v>
+        <v>55.05</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -929,33 +929,33 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Magnus Gladh</t>
+          <t>martin Berry</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4578</v>
+        <v>4295</v>
       </c>
       <c r="G15" t="n">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="H15" t="n">
-        <v>52.22</v>
+        <v>45.21</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -967,29 +967,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2409</v>
+        <v>5323</v>
       </c>
       <c r="G16" t="n">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24</v>
+        <v>53.59</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3693</v>
+        <v>5327</v>
       </c>
       <c r="G17" t="n">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="H17" t="n">
-        <v>50.82</v>
+        <v>49.48</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1031,15 +1031,15 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Magnus Gladh</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3051</v>
+        <v>4578</v>
       </c>
       <c r="G18" t="n">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="H18" t="n">
-        <v>41.23</v>
+        <v>52.22</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1065,30 +1065,30 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gijs Tromp</t>
+          <t>Oscar Ebbeling</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2042</v>
+        <v>3730</v>
       </c>
       <c r="G19" t="n">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="H19" t="n">
-        <v>53.74</v>
+        <v>43.37</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1099,35 +1099,69 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Tristan Snoep</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4499</v>
+      </c>
+      <c r="G20" t="n">
+        <v>321</v>
+      </c>
+      <c r="H20" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Lee Dolan</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1770</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>131</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>40.53</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,32 +491,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nathan May</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23399</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1337</v>
+      </c>
+      <c r="H2" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>35</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23145</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>57.91</v>
-      </c>
-      <c r="I2" t="n">
-        <v>45</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -525,32 +525,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>23399</v>
+        <v>11558</v>
       </c>
       <c r="G3" t="n">
-        <v>1337</v>
+        <v>544</v>
       </c>
       <c r="H3" t="n">
-        <v>52.5</v>
+        <v>63.74</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,100 +559,100 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Alessandro Delia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11558</v>
+        <v>15518</v>
       </c>
       <c r="G4" t="n">
-        <v>544</v>
+        <v>916</v>
       </c>
       <c r="H4" t="n">
-        <v>63.74</v>
+        <v>50.82</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alessandro Delia</t>
+          <t>Remco Riem</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15518</v>
+        <v>9836</v>
       </c>
       <c r="G5" t="n">
-        <v>916</v>
+        <v>469</v>
       </c>
       <c r="H5" t="n">
-        <v>50.82</v>
+        <v>62.92</v>
       </c>
       <c r="I5" t="n">
         <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Remco Riem</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>9836</v>
+        <v>11864</v>
       </c>
       <c r="G6" t="n">
-        <v>469</v>
+        <v>581</v>
       </c>
       <c r="H6" t="n">
-        <v>62.92</v>
+        <v>61.26</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -661,29 +661,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11864</v>
+        <v>11451</v>
       </c>
       <c r="G7" t="n">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="H7" t="n">
-        <v>61.26</v>
+        <v>55.05</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -695,29 +695,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gijs Tromp</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7628</v>
+      </c>
+      <c r="G8" t="n">
+        <v>396</v>
+      </c>
+      <c r="H8" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="I8" t="n">
         <v>14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11451</v>
-      </c>
-      <c r="G8" t="n">
-        <v>624</v>
-      </c>
-      <c r="H8" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,29 +729,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6984</v>
+      </c>
+      <c r="G9" t="n">
+        <v>333</v>
+      </c>
+      <c r="H9" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="I9" t="n">
         <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7628</v>
-      </c>
-      <c r="G9" t="n">
-        <v>396</v>
-      </c>
-      <c r="H9" t="n">
-        <v>57.79</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -763,29 +763,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6984</v>
+        <v>6262</v>
       </c>
       <c r="G10" t="n">
-        <v>333</v>
+        <v>477</v>
       </c>
       <c r="H10" t="n">
-        <v>62.92</v>
+        <v>39.38</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -793,30 +793,30 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Afendi Kelana</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>6262</v>
+        <v>8344</v>
       </c>
       <c r="G11" t="n">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="H11" t="n">
-        <v>39.38</v>
+        <v>57.94</v>
       </c>
       <c r="I11" t="n">
         <v>11</v>
@@ -827,33 +827,33 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Afendi Kelana</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8344</v>
+        <v>7022</v>
       </c>
       <c r="G12" t="n">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="H12" t="n">
-        <v>57.94</v>
+        <v>46.1</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -861,30 +861,30 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Francesco Petruccelli</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7022</v>
+        <v>6404</v>
       </c>
       <c r="G13" t="n">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="H13" t="n">
-        <v>46.1</v>
+        <v>55.05</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
@@ -895,11 +895,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Francesco Petruccelli</t>
+          <t>martin Berry</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6404</v>
+        <v>4295</v>
       </c>
       <c r="G14" t="n">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="H14" t="n">
-        <v>55.05</v>
+        <v>45.21</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -929,15 +929,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>martin Berry</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4295</v>
+        <v>5323</v>
       </c>
       <c r="G15" t="n">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H15" t="n">
-        <v>45.21</v>
+        <v>53.59</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -967,29 +967,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5323</v>
+        <v>5327</v>
       </c>
       <c r="G16" t="n">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="H16" t="n">
-        <v>53.59</v>
+        <v>49.48</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1001,11 +1001,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Magnus Gladh</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5327</v>
+        <v>4578</v>
       </c>
       <c r="G17" t="n">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="H17" t="n">
-        <v>49.48</v>
+        <v>52.22</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1035,11 +1035,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Magnus Gladh</t>
+          <t>Oscar Ebbeling</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4578</v>
+        <v>3730</v>
       </c>
       <c r="G18" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H18" t="n">
-        <v>52.22</v>
+        <v>43.37</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1065,11 +1065,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Oscar Ebbeling</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3730</v>
+        <v>4499</v>
       </c>
       <c r="G19" t="n">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="H19" t="n">
-        <v>43.37</v>
+        <v>42.05</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1099,15 +1099,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Lee Dolan</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1116,52 +1116,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4499</v>
+        <v>1770</v>
       </c>
       <c r="G20" t="n">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="H20" t="n">
-        <v>42.05</v>
+        <v>40.53</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Lee Dolan</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1770</v>
-      </c>
-      <c r="G21" t="n">
-        <v>131</v>
-      </c>
-      <c r="H21" t="n">
-        <v>40.53</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -504,16 +504,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23399</v>
+        <v>27236</v>
       </c>
       <c r="G2" t="n">
-        <v>1337</v>
+        <v>1542</v>
       </c>
       <c r="H2" t="n">
-        <v>52.5</v>
+        <v>52.99</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -525,32 +525,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Remco Riem</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11558</v>
+        <v>15478</v>
       </c>
       <c r="G3" t="n">
-        <v>544</v>
+        <v>713</v>
       </c>
       <c r="H3" t="n">
-        <v>63.74</v>
+        <v>65.12</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15518</v>
+        <v>17627</v>
       </c>
       <c r="G4" t="n">
-        <v>916</v>
+        <v>1033</v>
       </c>
       <c r="H4" t="n">
-        <v>50.82</v>
+        <v>51.19</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -593,29 +593,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Remco Riem</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>9836</v>
+        <v>11558</v>
       </c>
       <c r="G5" t="n">
-        <v>469</v>
+        <v>544</v>
       </c>
       <c r="H5" t="n">
-        <v>62.92</v>
+        <v>63.74</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -627,29 +627,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>11864</v>
+        <v>12667</v>
       </c>
       <c r="G6" t="n">
-        <v>581</v>
+        <v>722</v>
       </c>
       <c r="H6" t="n">
-        <v>61.26</v>
+        <v>52.63</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -661,29 +661,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gijs Tromp</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>11451</v>
+        <v>11864</v>
       </c>
       <c r="G7" t="n">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="H7" t="n">
-        <v>55.05</v>
+        <v>61.26</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7628</v>
+        <v>11771</v>
       </c>
       <c r="G8" t="n">
-        <v>396</v>
+        <v>632</v>
       </c>
       <c r="H8" t="n">
-        <v>57.79</v>
+        <v>55.88</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,11 +729,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -742,16 +742,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6984</v>
+        <v>11451</v>
       </c>
       <c r="G9" t="n">
-        <v>333</v>
+        <v>624</v>
       </c>
       <c r="H9" t="n">
-        <v>62.92</v>
+        <v>55.05</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -763,11 +763,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6262</v>
+        <v>9658</v>
       </c>
       <c r="G10" t="n">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="H10" t="n">
-        <v>39.38</v>
+        <v>48.21</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -793,33 +793,33 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Afendi Kelana</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8344</v>
+        <v>6984</v>
       </c>
       <c r="G11" t="n">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="H11" t="n">
-        <v>57.94</v>
+        <v>62.92</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -844,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7022</v>
+        <v>6262</v>
       </c>
       <c r="G12" t="n">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="H12" t="n">
-        <v>46.1</v>
+        <v>39.38</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Francesco Petruccelli</t>
+          <t>Afendi Kelana</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -875,19 +875,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>6404</v>
+        <v>8344</v>
       </c>
       <c r="G13" t="n">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="H13" t="n">
-        <v>55.05</v>
+        <v>57.94</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -895,30 +895,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>martin Berry</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4295</v>
+        <v>7022</v>
       </c>
       <c r="G14" t="n">
-        <v>285</v>
+        <v>457</v>
       </c>
       <c r="H14" t="n">
-        <v>45.21</v>
+        <v>46.1</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -929,15 +929,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Francesco Petruccelli</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5323</v>
+        <v>6404</v>
       </c>
       <c r="G15" t="n">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="H15" t="n">
-        <v>53.59</v>
+        <v>55.05</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -963,33 +963,33 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>martin Berry</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5327</v>
+        <v>4295</v>
       </c>
       <c r="G16" t="n">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="H16" t="n">
-        <v>49.48</v>
+        <v>45.21</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4578</v>
+        <v>6401</v>
       </c>
       <c r="G17" t="n">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="H17" t="n">
-        <v>52.22</v>
+        <v>50.94</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1035,11 +1035,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oscar Ebbeling</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3730</v>
+        <v>6258</v>
       </c>
       <c r="G18" t="n">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="H18" t="n">
-        <v>43.37</v>
+        <v>40.64</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1065,11 +1065,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Oscar Ebbeling</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4499</v>
+        <v>3730</v>
       </c>
       <c r="G19" t="n">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="H19" t="n">
-        <v>42.05</v>
+        <v>43.37</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1103,31 +1103,99 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Niels van Dommelen</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2266</v>
+      </c>
+      <c r="G20" t="n">
+        <v>135</v>
+      </c>
+      <c r="H20" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Noah B</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2410</v>
+      </c>
+      <c r="G21" t="n">
+        <v>140</v>
+      </c>
+      <c r="H21" t="n">
+        <v>51.64</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Lee Dolan</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1770</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G22" t="n">
         <v>131</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>40.53</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -504,16 +504,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27236</v>
+        <v>29496</v>
       </c>
       <c r="G2" t="n">
-        <v>1542</v>
+        <v>1683</v>
       </c>
       <c r="H2" t="n">
-        <v>52.99</v>
+        <v>52.58</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -559,79 +559,79 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alessandro Delia</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17627</v>
+        <v>16278</v>
       </c>
       <c r="G4" t="n">
-        <v>1033</v>
+        <v>888</v>
       </c>
       <c r="H4" t="n">
-        <v>51.19</v>
+        <v>54.99</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Alessandro Delia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11558</v>
+        <v>19418</v>
       </c>
       <c r="G5" t="n">
-        <v>544</v>
+        <v>1138</v>
       </c>
       <c r="H5" t="n">
-        <v>63.74</v>
+        <v>51.19</v>
       </c>
       <c r="I5" t="n">
         <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -640,50 +640,50 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>12667</v>
+        <v>11558</v>
       </c>
       <c r="G6" t="n">
-        <v>722</v>
+        <v>544</v>
       </c>
       <c r="H6" t="n">
-        <v>52.63</v>
+        <v>63.74</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>11864</v>
+        <v>17913</v>
       </c>
       <c r="G7" t="n">
-        <v>581</v>
+        <v>1033</v>
       </c>
       <c r="H7" t="n">
-        <v>61.26</v>
+        <v>52.02</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -691,33 +691,33 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11771</v>
+        <v>14426</v>
       </c>
       <c r="G8" t="n">
-        <v>632</v>
+        <v>881</v>
       </c>
       <c r="H8" t="n">
-        <v>55.88</v>
+        <v>49.12</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,29 +729,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gijs Tromp</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11451</v>
+        <v>9206</v>
       </c>
       <c r="G9" t="n">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="H9" t="n">
-        <v>55.05</v>
+        <v>41.66</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -759,33 +759,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>9658</v>
+        <v>11864</v>
       </c>
       <c r="G10" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="H10" t="n">
-        <v>48.21</v>
+        <v>61.26</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -797,11 +797,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6984</v>
+        <v>11451</v>
       </c>
       <c r="G11" t="n">
-        <v>333</v>
+        <v>624</v>
       </c>
       <c r="H11" t="n">
-        <v>62.92</v>
+        <v>55.05</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -831,29 +831,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>6262</v>
+        <v>6984</v>
       </c>
       <c r="G12" t="n">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="H12" t="n">
-        <v>39.38</v>
+        <v>62.92</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Oscar Ebbeling</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3730</v>
+        <v>4696</v>
       </c>
       <c r="G19" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H19" t="n">
-        <v>43.37</v>
+        <v>52.96</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1099,15 +1099,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Oscar Ebbeling</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1116,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2266</v>
+        <v>3730</v>
       </c>
       <c r="G20" t="n">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="H20" t="n">
-        <v>50.36</v>
+        <v>43.37</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1133,11 +1133,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2410</v>
+        <v>2266</v>
       </c>
       <c r="G21" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H21" t="n">
-        <v>51.64</v>
+        <v>50.36</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,32 +525,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Remco Riem</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15478</v>
+        <v>16278</v>
       </c>
       <c r="G3" t="n">
-        <v>713</v>
+        <v>888</v>
       </c>
       <c r="H3" t="n">
-        <v>65.12</v>
+        <v>54.99</v>
       </c>
       <c r="I3" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,131 +559,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Alessandro Delia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16278</v>
+        <v>19418</v>
       </c>
       <c r="G4" t="n">
-        <v>888</v>
+        <v>1138</v>
       </c>
       <c r="H4" t="n">
-        <v>54.99</v>
+        <v>51.19</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alessandro Delia</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>19418</v>
+        <v>11558</v>
       </c>
       <c r="G5" t="n">
-        <v>1138</v>
+        <v>544</v>
       </c>
       <c r="H5" t="n">
-        <v>51.19</v>
+        <v>63.74</v>
       </c>
       <c r="I5" t="n">
         <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>11558</v>
+        <v>17913</v>
       </c>
       <c r="G6" t="n">
-        <v>544</v>
+        <v>1033</v>
       </c>
       <c r="H6" t="n">
-        <v>63.74</v>
+        <v>52.02</v>
       </c>
       <c r="I6" t="n">
         <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>17913</v>
+        <v>14426</v>
       </c>
       <c r="G7" t="n">
-        <v>1033</v>
+        <v>881</v>
       </c>
       <c r="H7" t="n">
-        <v>52.02</v>
+        <v>49.12</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -695,11 +695,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14426</v>
+        <v>9206</v>
       </c>
       <c r="G8" t="n">
-        <v>881</v>
+        <v>663</v>
       </c>
       <c r="H8" t="n">
-        <v>49.12</v>
+        <v>41.66</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -725,30 +725,30 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>9206</v>
+        <v>11864</v>
       </c>
       <c r="G9" t="n">
-        <v>663</v>
+        <v>581</v>
       </c>
       <c r="H9" t="n">
-        <v>41.66</v>
+        <v>61.26</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
@@ -759,33 +759,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11864</v>
+        <v>11451</v>
       </c>
       <c r="G10" t="n">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="H10" t="n">
-        <v>61.26</v>
+        <v>55.05</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -797,11 +797,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gijs Tromp</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11451</v>
+        <v>6984</v>
       </c>
       <c r="G11" t="n">
-        <v>624</v>
+        <v>333</v>
       </c>
       <c r="H11" t="n">
-        <v>55.05</v>
+        <v>62.92</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -831,29 +831,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Afendi Kelana</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8344</v>
+      </c>
+      <c r="G12" t="n">
+        <v>432</v>
+      </c>
+      <c r="H12" t="n">
+        <v>57.94</v>
+      </c>
+      <c r="I12" t="n">
         <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6984</v>
-      </c>
-      <c r="G12" t="n">
-        <v>333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -865,29 +865,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Afendi Kelana</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8344</v>
+        <v>7022</v>
       </c>
       <c r="G13" t="n">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="H13" t="n">
-        <v>57.94</v>
+        <v>46.1</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -895,30 +895,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Francesco Petruccelli</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7022</v>
+        <v>6404</v>
       </c>
       <c r="G14" t="n">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="H14" t="n">
-        <v>46.1</v>
+        <v>55.05</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -929,11 +929,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Francesco Petruccelli</t>
+          <t>martin Berry</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6404</v>
+        <v>4295</v>
       </c>
       <c r="G15" t="n">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="H15" t="n">
-        <v>55.05</v>
+        <v>45.21</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
@@ -963,33 +963,33 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>martin Berry</t>
+          <t>Magnus Gladh</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4295</v>
+        <v>6401</v>
       </c>
       <c r="G16" t="n">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="H16" t="n">
-        <v>45.21</v>
+        <v>50.94</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1001,11 +1001,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Magnus Gladh</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6401</v>
+        <v>6258</v>
       </c>
       <c r="G17" t="n">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="H17" t="n">
-        <v>50.94</v>
+        <v>40.64</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1035,11 +1035,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6258</v>
+        <v>4696</v>
       </c>
       <c r="G18" t="n">
-        <v>462</v>
+        <v>266</v>
       </c>
       <c r="H18" t="n">
-        <v>40.64</v>
+        <v>52.96</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1065,11 +1065,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Oscar Ebbeling</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4696</v>
+        <v>3730</v>
       </c>
       <c r="G19" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H19" t="n">
-        <v>52.96</v>
+        <v>43.37</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1099,15 +1099,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Oscar Ebbeling</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1116,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3730</v>
+        <v>2266</v>
       </c>
       <c r="G20" t="n">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="H20" t="n">
-        <v>43.37</v>
+        <v>50.36</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Lee Dolan</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1150,52 +1150,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2266</v>
+        <v>1770</v>
       </c>
       <c r="G21" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H21" t="n">
-        <v>50.36</v>
+        <v>40.53</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Lee Dolan</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1770</v>
-      </c>
-      <c r="G22" t="n">
-        <v>131</v>
-      </c>
-      <c r="H22" t="n">
-        <v>40.53</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -495,25 +495,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>29496</v>
+        <v>36164</v>
       </c>
       <c r="G2" t="n">
-        <v>1683</v>
+        <v>2047</v>
       </c>
       <c r="H2" t="n">
-        <v>52.58</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -525,32 +525,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>16278</v>
+        <v>19917</v>
       </c>
       <c r="G3" t="n">
-        <v>888</v>
+        <v>1150</v>
       </c>
       <c r="H3" t="n">
-        <v>54.99</v>
+        <v>51.96</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -559,45 +559,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alessandro Delia</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19418</v>
+        <v>16278</v>
       </c>
       <c r="G4" t="n">
-        <v>1138</v>
+        <v>888</v>
       </c>
       <c r="H4" t="n">
-        <v>51.19</v>
+        <v>54.99</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>11558</v>
+        <v>16912</v>
       </c>
       <c r="G5" t="n">
-        <v>544</v>
+        <v>920</v>
       </c>
       <c r="H5" t="n">
-        <v>63.74</v>
+        <v>55.15</v>
       </c>
       <c r="I5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -623,30 +623,30 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Alessandro Delia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>17913</v>
+        <v>19418</v>
       </c>
       <c r="G6" t="n">
-        <v>1033</v>
+        <v>1138</v>
       </c>
       <c r="H6" t="n">
-        <v>52.02</v>
+        <v>51.19</v>
       </c>
       <c r="I6" t="n">
         <v>26</v>
@@ -657,36 +657,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>14426</v>
+        <v>11558</v>
       </c>
       <c r="G7" t="n">
-        <v>881</v>
+        <v>544</v>
       </c>
       <c r="H7" t="n">
-        <v>49.12</v>
+        <v>63.74</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -695,11 +695,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9206</v>
+        <v>17535</v>
       </c>
       <c r="G8" t="n">
-        <v>663</v>
+        <v>1057</v>
       </c>
       <c r="H8" t="n">
-        <v>41.66</v>
+        <v>49.77</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -725,30 +725,30 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11864</v>
+        <v>9206</v>
       </c>
       <c r="G9" t="n">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="H9" t="n">
-        <v>61.26</v>
+        <v>41.66</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
@@ -759,33 +759,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gijs Tromp</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>11451</v>
+        <v>11864</v>
       </c>
       <c r="G10" t="n">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="H10" t="n">
-        <v>55.05</v>
+        <v>61.26</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -997,15 +997,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6258</v>
+        <v>6577</v>
       </c>
       <c r="G17" t="n">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="H17" t="n">
-        <v>40.64</v>
+        <v>51.92</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1035,11 +1035,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4696</v>
+        <v>7796</v>
       </c>
       <c r="G18" t="n">
-        <v>266</v>
+        <v>573</v>
       </c>
       <c r="H18" t="n">
-        <v>52.96</v>
+        <v>40.82</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>

--- a/totaalstand_EL1_EL8.xlsx
+++ b/totaalstand_EL1_EL8.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -504,16 +504,16 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>36164</v>
+        <v>47556</v>
       </c>
       <c r="G2" t="n">
-        <v>2047</v>
+        <v>2710</v>
       </c>
       <c r="H2" t="n">
-        <v>53</v>
+        <v>52.65</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -525,32 +525,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dartin Dan</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>19917</v>
+        <v>20188</v>
       </c>
       <c r="G3" t="n">
-        <v>1150</v>
+        <v>1102</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96</v>
+        <v>54.96</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,32 +559,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Dartin Dan</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>16278</v>
+        <v>19917</v>
       </c>
       <c r="G4" t="n">
-        <v>888</v>
+        <v>1150</v>
       </c>
       <c r="H4" t="n">
-        <v>54.99</v>
+        <v>51.96</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>17535</v>
+        <v>20654</v>
       </c>
       <c r="G8" t="n">
-        <v>1057</v>
+        <v>1272</v>
       </c>
       <c r="H8" t="n">
-        <v>49.77</v>
+        <v>48.71</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,11 +729,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Max Walter</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -742,50 +742,50 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9206</v>
+        <v>14992</v>
       </c>
       <c r="G9" t="n">
-        <v>663</v>
+        <v>862</v>
       </c>
       <c r="H9" t="n">
-        <v>41.66</v>
+        <v>52.18</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Milan Schoenmakers</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11864</v>
+        <v>11242</v>
       </c>
       <c r="G10" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="H10" t="n">
-        <v>61.26</v>
+        <v>57.75</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -797,29 +797,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Milan Schoenmakers</t>
+          <t>Max Walter</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6984</v>
+        <v>9206</v>
       </c>
       <c r="G11" t="n">
-        <v>333</v>
+        <v>663</v>
       </c>
       <c r="H11" t="n">
-        <v>62.92</v>
+        <v>41.66</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -827,33 +827,33 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Afendi Kelana</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>8344</v>
+        <v>11864</v>
       </c>
       <c r="G12" t="n">
-        <v>432</v>
+        <v>581</v>
       </c>
       <c r="H12" t="n">
-        <v>57.94</v>
+        <v>61.26</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -865,29 +865,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Afendi Kelana</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>7022</v>
+        <v>8344</v>
       </c>
       <c r="G13" t="n">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="H13" t="n">
-        <v>46.1</v>
+        <v>57.94</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -895,30 +895,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Francesco Petruccelli</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6404</v>
+        <v>7022</v>
       </c>
       <c r="G14" t="n">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="H14" t="n">
-        <v>55.05</v>
+        <v>46.1</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -929,11 +929,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>martin Berry</t>
+          <t>Francesco Petruccelli</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4295</v>
+        <v>6404</v>
       </c>
       <c r="G15" t="n">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="H15" t="n">
-        <v>45.21</v>
+        <v>55.05</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
@@ -963,33 +963,33 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Magnus Gladh</t>
+          <t>martin Berry</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6401</v>
+        <v>4295</v>
       </c>
       <c r="G16" t="n">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="H16" t="n">
-        <v>50.94</v>
+        <v>45.21</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -997,11 +997,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Magnus Gladh</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1014,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6577</v>
+        <v>6401</v>
       </c>
       <c r="G17" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H17" t="n">
-        <v>51.92</v>
+        <v>50.94</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
